--- a/data/ListNihongo.xlsx
+++ b/data/ListNihongo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Japan\Tools\nihongo-tools\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA817C3-DCA2-4A57-A3AC-D9650757373E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AD51BC-9ED3-46A2-92E7-7FF32F479ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="14" xr2:uid="{56CF80BE-14E5-4F88-95A3-F1EC2EF36E05}"/>
   </bookViews>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="907">
   <si>
     <t>Column1</t>
   </si>
@@ -2528,6 +2528,318 @@
   </si>
   <si>
     <t>Hẹn gặp lại</t>
+  </si>
+  <si>
+    <t>わたし</t>
+  </si>
+  <si>
+    <t>私</t>
+  </si>
+  <si>
+    <t>tôi</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>私たち</t>
+  </si>
+  <si>
+    <t>彼</t>
+  </si>
+  <si>
+    <t>かれ</t>
+  </si>
+  <si>
+    <t>chúng tôi, chúng ta</t>
+  </si>
+  <si>
+    <t>anh ấy, bạn trai</t>
+  </si>
+  <si>
+    <t>cô ấy, bạn gái</t>
+  </si>
+  <si>
+    <t>かのじょ</t>
+  </si>
+  <si>
+    <t>彼女</t>
+  </si>
+  <si>
+    <t>みなさん</t>
+  </si>
+  <si>
+    <t>皆さん</t>
+  </si>
+  <si>
+    <t>các anh chị, các ông bà,các bạn, quý vị</t>
+  </si>
+  <si>
+    <t>あなた</t>
+  </si>
+  <si>
+    <t>anh/chị, ông/bà, bạn (ngôi thứ II số ít)</t>
+  </si>
+  <si>
+    <t>người đó, anh kia, chị kia ( あのかた : vị kia - là cách nói lịch sự của あのひと )</t>
+  </si>
+  <si>
+    <t>あの人（あの方）</t>
+  </si>
+  <si>
+    <t>あのひと（あのかた）</t>
+  </si>
+  <si>
+    <t>教師</t>
+  </si>
+  <si>
+    <t>きょうし</t>
+  </si>
+  <si>
+    <t>giáo viên</t>
+  </si>
+  <si>
+    <t>先生</t>
+  </si>
+  <si>
+    <t>thầy/cô</t>
+  </si>
+  <si>
+    <t>がくせい</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>học sinh</t>
+  </si>
+  <si>
+    <t>tài xế</t>
+  </si>
+  <si>
+    <t>うんてんしゅ</t>
+  </si>
+  <si>
+    <t>運転手</t>
+  </si>
+  <si>
+    <t>nhân viên công ty</t>
+  </si>
+  <si>
+    <t>会社員</t>
+  </si>
+  <si>
+    <t>かいしゃいん</t>
+  </si>
+  <si>
+    <t>社員</t>
+  </si>
+  <si>
+    <t>しゃいん</t>
+  </si>
+  <si>
+    <t>nhân viên ngân hàng</t>
+  </si>
+  <si>
+    <t>ぎんこういん</t>
+  </si>
+  <si>
+    <t>銀行員</t>
+  </si>
+  <si>
+    <t>bác sĩ</t>
+  </si>
+  <si>
+    <t>いしゃ</t>
+  </si>
+  <si>
+    <t>医者</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> エンジニア</t>
+  </si>
+  <si>
+    <t>kỹ sư</t>
+  </si>
+  <si>
+    <t>nhà nghiên cứu</t>
+  </si>
+  <si>
+    <t>けんきゅしゃ</t>
+  </si>
+  <si>
+    <t>研究者</t>
+  </si>
+  <si>
+    <t>りゅうがくせい</t>
+  </si>
+  <si>
+    <t>留学生</t>
+  </si>
+  <si>
+    <t>du học sinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">だれ（どなた） </t>
+  </si>
+  <si>
+    <t>ai ( どなた : vị nào - là cách nói lịch sự của だれ )</t>
+  </si>
+  <si>
+    <t>だいがく</t>
+  </si>
+  <si>
+    <t>大学</t>
+  </si>
+  <si>
+    <t>だれ（どなた）</t>
+  </si>
+  <si>
+    <t>đại học, trường đại học</t>
+  </si>
+  <si>
+    <t>びょういん</t>
+  </si>
+  <si>
+    <t>病院</t>
+  </si>
+  <si>
+    <t>bệnh viện</t>
+  </si>
+  <si>
+    <t>にほん</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>Nhật Bản</t>
+  </si>
+  <si>
+    <t>ベトナム</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Việt Nam</t>
+  </si>
+  <si>
+    <t>Hàn Quốc</t>
+  </si>
+  <si>
+    <t>かんこく</t>
+  </si>
+  <si>
+    <t>韓国</t>
+  </si>
+  <si>
+    <t>ちゅうごく</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>Trung Quốc</t>
+  </si>
+  <si>
+    <t>アメリカ</t>
+  </si>
+  <si>
+    <t>Mỹ</t>
+  </si>
+  <si>
+    <t>イギリス</t>
+  </si>
+  <si>
+    <t>Anh</t>
+  </si>
+  <si>
+    <t>người ~</t>
+  </si>
+  <si>
+    <t>～人</t>
+  </si>
+  <si>
+    <t>～じん</t>
+  </si>
+  <si>
+    <t>tiếng ~</t>
+  </si>
+  <si>
+    <t>～語</t>
+  </si>
+  <si>
+    <t>～ご</t>
+  </si>
+  <si>
+    <t>しゅっしん</t>
+  </si>
+  <si>
+    <t>xuất thân, quê quán</t>
+  </si>
+  <si>
+    <t>出身</t>
+  </si>
+  <si>
+    <t>(tôi) đến từ ~</t>
+  </si>
+  <si>
+    <t>～からきました</t>
+  </si>
+  <si>
+    <t>～からき来した</t>
+  </si>
+  <si>
+    <t>はい</t>
+  </si>
+  <si>
+    <t>vâng, dạ</t>
+  </si>
+  <si>
+    <t>いいえ</t>
+  </si>
+  <si>
+    <t>không</t>
+  </si>
+  <si>
+    <t>しつれいですが</t>
+  </si>
+  <si>
+    <t>失礼ですが</t>
+  </si>
+  <si>
+    <t>Xin lỗi,…(dùng khi hỏi ai đó về thông tin cá nhân như là tên hoặc địa chỉ của họ)</t>
+  </si>
+  <si>
+    <t>おなまえをもういちどおねがいします</t>
+  </si>
+  <si>
+    <t>お名前をもう一度お願いします</t>
+  </si>
+  <si>
+    <t>Anh/ Chị vui lòng nhắc lại tên một lần nữa được không ạ?</t>
+  </si>
+  <si>
+    <t>どうぞよろしくおねがいします</t>
+  </si>
+  <si>
+    <t>どうぞよろしくお願いします</t>
+  </si>
+  <si>
+    <t>Rất mong nhận được sự giúp đỡ của anh/chị!</t>
+  </si>
+  <si>
+    <t>Vậy à/ Thế à?</t>
+  </si>
+  <si>
+    <t>そうですか</t>
+  </si>
+  <si>
+    <t>Công việc của anh/chị là gì thế?</t>
+  </si>
+  <si>
+    <t>おしごとはなんですか</t>
+  </si>
+  <si>
+    <t>お仕事は何ですか</t>
   </si>
 </sst>
 </file>
@@ -2569,8 +2881,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2998,12 +3313,13 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{962FFBF1-A81B-49D0-AC64-356BBD3EAAEF}" name="Table10" displayName="Table10" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7" xr:uid="{962FFBF1-A81B-49D0-AC64-356BBD3EAAEF}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{962FFBF1-A81B-49D0-AC64-356BBD3EAAEF}" name="Table10" displayName="Table10" ref="A1:D45" totalsRowShown="0">
+  <autoFilter ref="A1:D45" xr:uid="{962FFBF1-A81B-49D0-AC64-356BBD3EAAEF}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3243FCE0-44AF-4876-8D4B-A7802E96CB60}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{B5CB1CF3-E297-4C98-A127-D4307BEBAFC5}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{7E08BFBE-9895-47E0-B25A-EC1BE78BECCE}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{676F3015-6935-451E-B503-7FF7090C014B}" name="Column4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6318,20 +6634,20 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1333FF2-D445-482C-AA9E-8D00BBB24BB3}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6341,8 +6657,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>785</v>
       </c>
@@ -6352,8 +6671,11 @@
       <c r="C2" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>788</v>
       </c>
@@ -6363,8 +6685,11 @@
       <c r="C3" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>791</v>
       </c>
@@ -6374,8 +6699,11 @@
       <c r="C4" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>794</v>
       </c>
@@ -6385,8 +6713,11 @@
       <c r="C5" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>797</v>
       </c>
@@ -6396,8 +6727,11 @@
       <c r="C6" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>800</v>
       </c>
@@ -6406,6 +6740,541 @@
       </c>
       <c r="C7" t="s">
         <v>802</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>804</v>
+      </c>
+      <c r="B8" t="s">
+        <v>803</v>
+      </c>
+      <c r="C8" t="s">
+        <v>805</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>807</v>
+      </c>
+      <c r="B9" t="s">
+        <v>803</v>
+      </c>
+      <c r="C9" t="s">
+        <v>810</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>808</v>
+      </c>
+      <c r="B10" t="s">
+        <v>809</v>
+      </c>
+      <c r="C10" t="s">
+        <v>811</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>814</v>
+      </c>
+      <c r="B11" t="s">
+        <v>813</v>
+      </c>
+      <c r="C11" t="s">
+        <v>812</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>816</v>
+      </c>
+      <c r="B12" t="s">
+        <v>815</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>818</v>
+      </c>
+      <c r="B13" t="s">
+        <v>818</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>821</v>
+      </c>
+      <c r="B14" t="s">
+        <v>822</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>823</v>
+      </c>
+      <c r="B15" t="s">
+        <v>824</v>
+      </c>
+      <c r="C15" t="s">
+        <v>825</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>826</v>
+      </c>
+      <c r="B16" t="s">
+        <v>794</v>
+      </c>
+      <c r="C16" t="s">
+        <v>827</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>829</v>
+      </c>
+      <c r="B17" t="s">
+        <v>828</v>
+      </c>
+      <c r="C17" t="s">
+        <v>830</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>833</v>
+      </c>
+      <c r="B18" t="s">
+        <v>832</v>
+      </c>
+      <c r="C18" t="s">
+        <v>831</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>835</v>
+      </c>
+      <c r="B19" t="s">
+        <v>836</v>
+      </c>
+      <c r="C19" t="s">
+        <v>834</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>837</v>
+      </c>
+      <c r="B20" t="s">
+        <v>838</v>
+      </c>
+      <c r="C20" t="s">
+        <v>834</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>841</v>
+      </c>
+      <c r="B21" t="s">
+        <v>840</v>
+      </c>
+      <c r="C21" t="s">
+        <v>839</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>844</v>
+      </c>
+      <c r="B22" t="s">
+        <v>843</v>
+      </c>
+      <c r="C22" t="s">
+        <v>842</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>845</v>
+      </c>
+      <c r="B23" t="s">
+        <v>845</v>
+      </c>
+      <c r="C23" t="s">
+        <v>846</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>849</v>
+      </c>
+      <c r="B24" t="s">
+        <v>848</v>
+      </c>
+      <c r="C24" t="s">
+        <v>847</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>851</v>
+      </c>
+      <c r="B25" t="s">
+        <v>850</v>
+      </c>
+      <c r="C25" t="s">
+        <v>852</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>857</v>
+      </c>
+      <c r="B26" t="s">
+        <v>853</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>856</v>
+      </c>
+      <c r="B27" t="s">
+        <v>855</v>
+      </c>
+      <c r="C27" t="s">
+        <v>858</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>860</v>
+      </c>
+      <c r="B28" t="s">
+        <v>859</v>
+      </c>
+      <c r="C28" t="s">
+        <v>861</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>863</v>
+      </c>
+      <c r="B29" t="s">
+        <v>862</v>
+      </c>
+      <c r="C29" t="s">
+        <v>864</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>865</v>
+      </c>
+      <c r="B30" t="s">
+        <v>865</v>
+      </c>
+      <c r="C30" t="s">
+        <v>866</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>869</v>
+      </c>
+      <c r="B31" t="s">
+        <v>868</v>
+      </c>
+      <c r="C31" t="s">
+        <v>867</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>871</v>
+      </c>
+      <c r="B32" t="s">
+        <v>870</v>
+      </c>
+      <c r="C32" t="s">
+        <v>872</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>873</v>
+      </c>
+      <c r="B33" t="s">
+        <v>873</v>
+      </c>
+      <c r="C33" t="s">
+        <v>874</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>875</v>
+      </c>
+      <c r="B34" t="s">
+        <v>875</v>
+      </c>
+      <c r="C34" t="s">
+        <v>876</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>878</v>
+      </c>
+      <c r="B35" t="s">
+        <v>879</v>
+      </c>
+      <c r="C35" t="s">
+        <v>877</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>881</v>
+      </c>
+      <c r="B36" t="s">
+        <v>882</v>
+      </c>
+      <c r="C36" t="s">
+        <v>880</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>885</v>
+      </c>
+      <c r="B37" t="s">
+        <v>883</v>
+      </c>
+      <c r="C37" t="s">
+        <v>884</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>888</v>
+      </c>
+      <c r="B38" t="s">
+        <v>887</v>
+      </c>
+      <c r="C38" t="s">
+        <v>886</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>889</v>
+      </c>
+      <c r="B39" t="s">
+        <v>889</v>
+      </c>
+      <c r="C39" t="s">
+        <v>890</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>891</v>
+      </c>
+      <c r="B40" t="s">
+        <v>891</v>
+      </c>
+      <c r="C40" t="s">
+        <v>892</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>894</v>
+      </c>
+      <c r="B41" t="s">
+        <v>893</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>897</v>
+      </c>
+      <c r="B42" t="s">
+        <v>896</v>
+      </c>
+      <c r="C42" t="s">
+        <v>898</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>900</v>
+      </c>
+      <c r="B43" t="s">
+        <v>899</v>
+      </c>
+      <c r="C43" t="s">
+        <v>901</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>903</v>
+      </c>
+      <c r="B44" t="s">
+        <v>903</v>
+      </c>
+      <c r="C44" t="s">
+        <v>902</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>906</v>
+      </c>
+      <c r="B45" t="s">
+        <v>905</v>
+      </c>
+      <c r="C45" t="s">
+        <v>904</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/ListNihongo.xlsx
+++ b/data/ListNihongo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Japan\Tools\nihongo-tools\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AD51BC-9ED3-46A2-92E7-7FF32F479ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D876F1-D89B-44D6-8B8B-F27C4F6C695C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="14" xr2:uid="{56CF80BE-14E5-4F88-95A3-F1EC2EF36E05}"/>
   </bookViews>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="906">
   <si>
     <t>Column1</t>
   </si>
@@ -2537,9 +2537,6 @@
   </si>
   <si>
     <t>tôi</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5</t>
   </si>
   <si>
     <t>私たち</t>
@@ -6636,8 +6633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1333FF2-D445-482C-AA9E-8D00BBB24BB3}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6671,8 +6668,8 @@
       <c r="C2" t="s">
         <v>787</v>
       </c>
-      <c r="D2" t="s">
-        <v>806</v>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6686,7 +6683,7 @@
         <v>790</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6700,7 +6697,7 @@
         <v>793</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6714,7 +6711,7 @@
         <v>796</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -6728,7 +6725,7 @@
         <v>799</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6742,7 +6739,7 @@
         <v>802</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -6756,525 +6753,525 @@
         <v>805</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B9" t="s">
         <v>803</v>
       </c>
       <c r="C9" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>807</v>
+      </c>
+      <c r="B10" t="s">
         <v>808</v>
       </c>
-      <c r="B10" t="s">
-        <v>809</v>
-      </c>
       <c r="C10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>815</v>
+      </c>
+      <c r="B12" t="s">
+        <v>814</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="B12" t="s">
-        <v>815</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>817</v>
-      </c>
       <c r="D12">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>817</v>
+      </c>
+      <c r="B13" t="s">
+        <v>817</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B13" t="s">
-        <v>818</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>819</v>
-      </c>
       <c r="D13">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>820</v>
+      </c>
+      <c r="B14" t="s">
         <v>821</v>
       </c>
-      <c r="B14" t="s">
-        <v>822</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>822</v>
+      </c>
+      <c r="B15" t="s">
         <v>823</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>824</v>
       </c>
-      <c r="C15" t="s">
-        <v>825</v>
-      </c>
       <c r="D15">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B16" t="s">
         <v>794</v>
       </c>
       <c r="C16" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>828</v>
+      </c>
+      <c r="B17" t="s">
+        <v>827</v>
+      </c>
+      <c r="C17" t="s">
         <v>829</v>
       </c>
-      <c r="B17" t="s">
-        <v>828</v>
-      </c>
-      <c r="C17" t="s">
-        <v>830</v>
-      </c>
       <c r="D17">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B18" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>834</v>
+      </c>
+      <c r="B19" t="s">
         <v>835</v>
       </c>
-      <c r="B19" t="s">
-        <v>836</v>
-      </c>
       <c r="C19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>836</v>
+      </c>
+      <c r="B20" t="s">
         <v>837</v>
       </c>
-      <c r="B20" t="s">
-        <v>838</v>
-      </c>
       <c r="C20" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B21" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C21" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B22" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C22" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>844</v>
+      </c>
+      <c r="B23" t="s">
+        <v>844</v>
+      </c>
+      <c r="C23" t="s">
         <v>845</v>
       </c>
-      <c r="B23" t="s">
-        <v>845</v>
-      </c>
-      <c r="C23" t="s">
-        <v>846</v>
-      </c>
       <c r="D23">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B24" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C24" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>850</v>
+      </c>
+      <c r="B25" t="s">
+        <v>849</v>
+      </c>
+      <c r="C25" t="s">
         <v>851</v>
       </c>
-      <c r="B25" t="s">
-        <v>850</v>
-      </c>
-      <c r="C25" t="s">
-        <v>852</v>
-      </c>
       <c r="D25">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B26" t="s">
+        <v>852</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>854</v>
-      </c>
       <c r="D26">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B27" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C27" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>859</v>
+      </c>
+      <c r="B28" t="s">
+        <v>858</v>
+      </c>
+      <c r="C28" t="s">
         <v>860</v>
       </c>
-      <c r="B28" t="s">
-        <v>859</v>
-      </c>
-      <c r="C28" t="s">
-        <v>861</v>
-      </c>
       <c r="D28">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>862</v>
+      </c>
+      <c r="B29" t="s">
+        <v>861</v>
+      </c>
+      <c r="C29" t="s">
         <v>863</v>
       </c>
-      <c r="B29" t="s">
-        <v>862</v>
-      </c>
-      <c r="C29" t="s">
-        <v>864</v>
-      </c>
       <c r="D29">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>864</v>
+      </c>
+      <c r="B30" t="s">
+        <v>864</v>
+      </c>
+      <c r="C30" t="s">
         <v>865</v>
       </c>
-      <c r="B30" t="s">
-        <v>865</v>
-      </c>
-      <c r="C30" t="s">
-        <v>866</v>
-      </c>
       <c r="D30">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B31" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C31" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>870</v>
+      </c>
+      <c r="B32" t="s">
+        <v>869</v>
+      </c>
+      <c r="C32" t="s">
         <v>871</v>
       </c>
-      <c r="B32" t="s">
-        <v>870</v>
-      </c>
-      <c r="C32" t="s">
-        <v>872</v>
-      </c>
       <c r="D32">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>872</v>
+      </c>
+      <c r="B33" t="s">
+        <v>872</v>
+      </c>
+      <c r="C33" t="s">
         <v>873</v>
       </c>
-      <c r="B33" t="s">
-        <v>873</v>
-      </c>
-      <c r="C33" t="s">
-        <v>874</v>
-      </c>
       <c r="D33">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>874</v>
+      </c>
+      <c r="B34" t="s">
+        <v>874</v>
+      </c>
+      <c r="C34" t="s">
         <v>875</v>
       </c>
-      <c r="B34" t="s">
-        <v>875</v>
-      </c>
-      <c r="C34" t="s">
-        <v>876</v>
-      </c>
       <c r="D34">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>877</v>
+      </c>
+      <c r="B35" t="s">
         <v>878</v>
       </c>
-      <c r="B35" t="s">
-        <v>879</v>
-      </c>
       <c r="C35" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>880</v>
+      </c>
+      <c r="B36" t="s">
         <v>881</v>
       </c>
-      <c r="B36" t="s">
-        <v>882</v>
-      </c>
       <c r="C36" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B37" t="s">
+        <v>882</v>
+      </c>
+      <c r="C37" t="s">
         <v>883</v>
       </c>
-      <c r="C37" t="s">
-        <v>884</v>
-      </c>
       <c r="D37">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B38" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C38" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>888</v>
+      </c>
+      <c r="B39" t="s">
+        <v>888</v>
+      </c>
+      <c r="C39" t="s">
         <v>889</v>
       </c>
-      <c r="B39" t="s">
-        <v>889</v>
-      </c>
-      <c r="C39" t="s">
-        <v>890</v>
-      </c>
       <c r="D39">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>890</v>
+      </c>
+      <c r="B40" t="s">
+        <v>890</v>
+      </c>
+      <c r="C40" t="s">
         <v>891</v>
       </c>
-      <c r="B40" t="s">
-        <v>891</v>
-      </c>
-      <c r="C40" t="s">
-        <v>892</v>
-      </c>
       <c r="D40">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>893</v>
+      </c>
+      <c r="B41" t="s">
+        <v>892</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="B41" t="s">
-        <v>893</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>895</v>
-      </c>
       <c r="D41">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>896</v>
+      </c>
+      <c r="B42" t="s">
+        <v>895</v>
+      </c>
+      <c r="C42" t="s">
         <v>897</v>
       </c>
-      <c r="B42" t="s">
-        <v>896</v>
-      </c>
-      <c r="C42" t="s">
-        <v>898</v>
-      </c>
       <c r="D42">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>899</v>
+      </c>
+      <c r="B43" t="s">
+        <v>898</v>
+      </c>
+      <c r="C43" t="s">
         <v>900</v>
       </c>
-      <c r="B43" t="s">
-        <v>899</v>
-      </c>
-      <c r="C43" t="s">
-        <v>901</v>
-      </c>
       <c r="D43">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B44" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C44" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B45" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C45" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D45">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/ListNihongo.xlsx
+++ b/data/ListNihongo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Japan\Tools\nihongo-tools\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D876F1-D89B-44D6-8B8B-F27C4F6C695C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42849E95-AE97-4C1C-8AF5-4C83684B3682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="14" xr2:uid="{56CF80BE-14E5-4F88-95A3-F1EC2EF36E05}"/>
   </bookViews>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="1032">
   <si>
     <t>Column1</t>
   </si>
@@ -2837,6 +2837,387 @@
   </si>
   <si>
     <t>お仕事は何ですか</t>
+  </si>
+  <si>
+    <t>Kon'nichiwa</t>
+  </si>
+  <si>
+    <t>Sensei</t>
+  </si>
+  <si>
+    <t>Konbanwa</t>
+  </si>
+  <si>
+    <t>Ohayōgozaimashi su</t>
+  </si>
+  <si>
+    <t>Sayōnara</t>
+  </si>
+  <si>
+    <t>Mata ne</t>
+  </si>
+  <si>
+    <t>Watashi</t>
+  </si>
+  <si>
+    <t>Watashitachi</t>
+  </si>
+  <si>
+    <t>Kare</t>
+  </si>
+  <si>
+    <t>Kanojo</t>
+  </si>
+  <si>
+    <t>Minasan</t>
+  </si>
+  <si>
+    <t>Anata</t>
+  </si>
+  <si>
+    <t>cái này, đây (vật ở gần người nói)</t>
+  </si>
+  <si>
+    <t>これ</t>
+  </si>
+  <si>
+    <t>それ</t>
+  </si>
+  <si>
+    <t>cái đó, đó (vật ở gần người nghe)</t>
+  </si>
+  <si>
+    <t>あれ</t>
+  </si>
+  <si>
+    <t>cái kia, kia (vật ở xa cả người nói 
+và người nghe)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この～ </t>
+  </si>
+  <si>
+    <t>~ này</t>
+  </si>
+  <si>
+    <t>その～</t>
+  </si>
+  <si>
+    <t>~ đó</t>
+  </si>
+  <si>
+    <t>あの～</t>
+  </si>
+  <si>
+    <t>~ kia</t>
+  </si>
+  <si>
+    <t>パソコン</t>
+  </si>
+  <si>
+    <t>máy tính cá nhân</t>
+  </si>
+  <si>
+    <t>けいたい</t>
+  </si>
+  <si>
+    <t>điện thoại di động</t>
+  </si>
+  <si>
+    <t>携帯</t>
+  </si>
+  <si>
+    <t>電話</t>
+  </si>
+  <si>
+    <t>でんわ</t>
+  </si>
+  <si>
+    <t>điện thoại</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>アイフォン</t>
+  </si>
+  <si>
+    <t>sạc pin</t>
+  </si>
+  <si>
+    <t>充電器</t>
+  </si>
+  <si>
+    <t>じゅうでんき</t>
+  </si>
+  <si>
+    <t>ヘッドフォン</t>
+  </si>
+  <si>
+    <t>tai nghe</t>
+  </si>
+  <si>
+    <t>máy ảnh</t>
+  </si>
+  <si>
+    <t>カメラ</t>
+  </si>
+  <si>
+    <t>tivi</t>
+  </si>
+  <si>
+    <t>テレビ</t>
+  </si>
+  <si>
+    <t>ô tô, xe hơi</t>
+  </si>
+  <si>
+    <t>くるま</t>
+  </si>
+  <si>
+    <t>đồng hồ</t>
+  </si>
+  <si>
+    <t>時計</t>
+  </si>
+  <si>
+    <t>とけい</t>
+  </si>
+  <si>
+    <t>bút</t>
+  </si>
+  <si>
+    <t>ペン</t>
+  </si>
+  <si>
+    <t>ボールペン</t>
+  </si>
+  <si>
+    <t>bút bi</t>
+  </si>
+  <si>
+    <t>bút chì</t>
+  </si>
+  <si>
+    <t>鉛筆</t>
+  </si>
+  <si>
+    <t>えんぴつ</t>
+  </si>
+  <si>
+    <t>シャープペンシル</t>
+  </si>
+  <si>
+    <t>bút chì kim</t>
+  </si>
+  <si>
+    <t>けしゴム</t>
+  </si>
+  <si>
+    <t>消しゴム</t>
+  </si>
+  <si>
+    <t>tẩy</t>
+  </si>
+  <si>
+    <t>sách</t>
+  </si>
+  <si>
+    <t>ほん</t>
+  </si>
+  <si>
+    <t>ノート</t>
+  </si>
+  <si>
+    <t>vở</t>
+  </si>
+  <si>
+    <t>sổ tay</t>
+  </si>
+  <si>
+    <t>手帳</t>
+  </si>
+  <si>
+    <t>てちょう</t>
+  </si>
+  <si>
+    <t>từ điển</t>
+  </si>
+  <si>
+    <t>báo</t>
+  </si>
+  <si>
+    <t>辞書</t>
+  </si>
+  <si>
+    <t>新聞</t>
+  </si>
+  <si>
+    <t>じしょ</t>
+  </si>
+  <si>
+    <t>しんぶん</t>
+  </si>
+  <si>
+    <t>ざっし</t>
+  </si>
+  <si>
+    <t>めいし</t>
+  </si>
+  <si>
+    <t>雑誌</t>
+  </si>
+  <si>
+    <t>名刺</t>
+  </si>
+  <si>
+    <t>tạp chí</t>
+  </si>
+  <si>
+    <t>danh thiếp</t>
+  </si>
+  <si>
+    <t>カード</t>
+  </si>
+  <si>
+    <t>thẻ, cạc</t>
+  </si>
+  <si>
+    <t>thẻ tín dụng</t>
+  </si>
+  <si>
+    <t>クレジットカード</t>
+  </si>
+  <si>
+    <t>mũ</t>
+  </si>
+  <si>
+    <t>帽子</t>
+  </si>
+  <si>
+    <t>ぼうし</t>
+  </si>
+  <si>
+    <t>ví</t>
+  </si>
+  <si>
+    <t>財布</t>
+  </si>
+  <si>
+    <t>さいふ</t>
+  </si>
+  <si>
+    <t>かばん</t>
+  </si>
+  <si>
+    <t>cặp sách, túi sách</t>
+  </si>
+  <si>
+    <t>くつ</t>
+  </si>
+  <si>
+    <t>靴</t>
+  </si>
+  <si>
+    <t>giày</t>
+  </si>
+  <si>
+    <t>dép đi trong nh</t>
+  </si>
+  <si>
+    <t>スリッパ</t>
+  </si>
+  <si>
+    <t>くつした</t>
+  </si>
+  <si>
+    <t>靴下</t>
+  </si>
+  <si>
+    <t>tất</t>
+  </si>
+  <si>
+    <t>chìa khóa</t>
+  </si>
+  <si>
+    <t>鍵</t>
+  </si>
+  <si>
+    <t>かぎ</t>
+  </si>
+  <si>
+    <t>かさ</t>
+  </si>
+  <si>
+    <t>傘</t>
+  </si>
+  <si>
+    <t>ô, dù</t>
+  </si>
+  <si>
+    <t>つくえ</t>
+  </si>
+  <si>
+    <t>机</t>
+  </si>
+  <si>
+    <t>bàn</t>
+  </si>
+  <si>
+    <t>cái ghế</t>
+  </si>
+  <si>
+    <t>椅子</t>
+  </si>
+  <si>
+    <t>いす</t>
+  </si>
+  <si>
+    <t>tiếng Anh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">英語 </t>
+  </si>
+  <si>
+    <t>えいご</t>
+  </si>
+  <si>
+    <t>cái gì (từ để hỏi)</t>
+  </si>
+  <si>
+    <t>なん</t>
+  </si>
+  <si>
+    <t>đúng, phải, đúng vậy</t>
+  </si>
+  <si>
+    <t>そう</t>
+  </si>
+  <si>
+    <t>không phải, sai rồi</t>
+  </si>
+  <si>
+    <t>ちがう ,
+ちがいます</t>
+  </si>
+  <si>
+    <t>違う,
+違います</t>
+  </si>
+  <si>
+    <t>スマホ</t>
+  </si>
+  <si>
+    <t>Đây là chút lòng thành của tôi!</t>
+  </si>
+  <si>
+    <t>ほんの気持ち</t>
+  </si>
+  <si>
+    <t>ほんのきもち</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3310,13 +3691,14 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{962FFBF1-A81B-49D0-AC64-356BBD3EAAEF}" name="Table10" displayName="Table10" ref="A1:D45" totalsRowShown="0">
-  <autoFilter ref="A1:D45" xr:uid="{962FFBF1-A81B-49D0-AC64-356BBD3EAAEF}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{962FFBF1-A81B-49D0-AC64-356BBD3EAAEF}" name="Table10" displayName="Table10" ref="A1:E92" totalsRowShown="0">
+  <autoFilter ref="A1:E92" xr:uid="{962FFBF1-A81B-49D0-AC64-356BBD3EAAEF}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3243FCE0-44AF-4876-8D4B-A7802E96CB60}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{B5CB1CF3-E297-4C98-A127-D4307BEBAFC5}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{7E08BFBE-9895-47E0-B25A-EC1BE78BECCE}" name="Column3"/>
     <tableColumn id="4" xr3:uid="{676F3015-6935-451E-B503-7FF7090C014B}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{E5AF65A8-36B7-48A1-85FD-0AA853A0343C}" name="Column5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6631,20 +7013,20 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1333FF2-D445-482C-AA9E-8D00BBB24BB3}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:G1200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G92" sqref="G1:G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="52.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6657,621 +7039,8574 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#Headers])</f>
+        <v>Column1|Column2|Column3|Column4|Column5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>909</v>
+      </c>
+      <c r="B2" t="s">
         <v>785</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>786</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>787</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>Ohayōgozaimashi su|おはようございましす|Oha yo go zai masu|chào buổi sáng =&gt; buổi học, buổi đi làm chỉ chào phần này|0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>906</v>
+      </c>
+      <c r="B3" t="s">
         <v>788</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>789</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>790</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>Kon'nichiwa|こんにちは|konnichiwa|chào buổi chiều|0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>908</v>
+      </c>
+      <c r="B4" t="s">
         <v>791</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>792</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>793</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>Konbanwa|こんばんは|kombangwa/konbanwa|Chào buổi tối|0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>907</v>
+      </c>
+      <c r="B5" t="s">
         <v>794</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>795</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>796</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>Sensei|せんせい|sensei|Giáo viên|0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>910</v>
+      </c>
+      <c r="B6" t="s">
         <v>797</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>798</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>799</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>Sayōnara|さようなら|sayonara|chào tạm biệt|0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>911</v>
+      </c>
+      <c r="B7" t="s">
         <v>800</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>801</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>802</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G7" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>Mata ne|またね|matane|Hẹn gặp lại|0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>912</v>
+      </c>
+      <c r="B8" t="s">
         <v>804</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>803</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>805</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G8" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>Watashi|私|わたし|tôi|1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>913</v>
+      </c>
+      <c r="B9" t="s">
         <v>806</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>803</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>809</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G9" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>Watashitachi|私たち|わたし|chúng tôi, chúng ta|1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>914</v>
+      </c>
+      <c r="B10" t="s">
         <v>807</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>808</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>810</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G10" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>Kare|彼|かれ|anh ấy, bạn trai|1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>915</v>
+      </c>
+      <c r="B11" t="s">
         <v>813</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>812</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>811</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G11" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>Kanojo|彼女|かのじょ|cô ấy, bạn gái|1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>916</v>
+      </c>
+      <c r="B12" t="s">
         <v>815</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>814</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G12" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>Minasan|皆さん|みなさん|các anh chị, các ông bà,các bạn, quý vị|1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>817</v>
+        <v>917</v>
       </c>
       <c r="B13" t="s">
         <v>817</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
+        <v>817</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="G13" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>Anata|あなた|あなた|anh/chị, ông/bà, bạn (ngôi thứ II số ít)|1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B14" t="s">
         <v>820</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>821</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G14" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |あの人（あの方）|あのひと（あのかた）|người đó, anh kia, chị kia ( あのかた : vị kia - là cách nói lịch sự của あのひと )|1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B15" t="s">
         <v>822</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>823</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>824</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G15" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |教師|きょうし|giáo viên|1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B16" t="s">
         <v>825</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>794</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>826</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G16" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |先生|せんせい|thầy/cô|1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B17" t="s">
         <v>828</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>827</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>829</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G17" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |学生|がくせい|học sinh|1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B18" t="s">
         <v>832</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>831</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>830</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G18" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |運転手|うんてんしゅ|tài xế|1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B19" t="s">
         <v>834</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>835</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>833</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G19" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |会社員|かいしゃいん|nhân viên công ty|1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B20" t="s">
         <v>836</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>837</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>833</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G20" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |社員|しゃいん|nhân viên công ty|1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B21" t="s">
         <v>840</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>839</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>838</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G21" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |銀行員|ぎんこういん|nhân viên ngân hàng|1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B22" t="s">
         <v>843</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>842</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>841</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G22" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |医者|いしゃ|bác sĩ|1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>844</v>
+        <v>1031</v>
       </c>
       <c r="B23" t="s">
         <v>844</v>
       </c>
       <c r="C23" t="s">
+        <v>844</v>
+      </c>
+      <c r="D23" t="s">
         <v>845</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G23" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> | エンジニア| エンジニア|kỹ sư|1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B24" t="s">
         <v>848</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>847</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>846</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G24" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |研究者|けんきゅしゃ|nhà nghiên cứu|1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B25" t="s">
         <v>850</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>849</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>851</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G25" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |留学生|りゅうがくせい|du học sinh|1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B26" t="s">
         <v>856</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>852</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G26" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |だれ（どなた）|だれ（どなた） |ai ( どなた : vị nào - là cách nói lịch sự của だれ )|1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B27" t="s">
         <v>855</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>854</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>857</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G27" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |大学|だいがく|đại học, trường đại học|1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B28" t="s">
         <v>859</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>858</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>860</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G28" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |病院|びょういん|bệnh viện|1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B29" t="s">
         <v>862</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>861</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>863</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G29" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |日本|にほん|Nhật Bản|1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>864</v>
+        <v>1031</v>
       </c>
       <c r="B30" t="s">
         <v>864</v>
       </c>
       <c r="C30" t="s">
+        <v>864</v>
+      </c>
+      <c r="D30" t="s">
         <v>865</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G30" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |ベトナム|ベトナム| Việt Nam|1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B31" t="s">
         <v>868</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>867</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>866</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G31" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |韓国|かんこく|Hàn Quốc|1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B32" t="s">
         <v>870</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>869</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>871</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G32" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |中国|ちゅうごく|Trung Quốc|1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>872</v>
+        <v>1031</v>
       </c>
       <c r="B33" t="s">
         <v>872</v>
       </c>
       <c r="C33" t="s">
+        <v>872</v>
+      </c>
+      <c r="D33" t="s">
         <v>873</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G33" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |アメリカ|アメリカ|Mỹ|1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>874</v>
+        <v>1031</v>
       </c>
       <c r="B34" t="s">
         <v>874</v>
       </c>
       <c r="C34" t="s">
+        <v>874</v>
+      </c>
+      <c r="D34" t="s">
         <v>875</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G34" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |イギリス|イギリス|Anh|1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B35" t="s">
         <v>877</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>878</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>876</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G35" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |～人|～じん|người ~|1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B36" t="s">
         <v>880</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>881</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>879</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G36" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |～語|～ご|tiếng ~|1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B37" t="s">
         <v>884</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>882</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>883</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G37" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |出身|しゅっしん|xuất thân, quê quán|1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B38" t="s">
         <v>887</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>886</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>885</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G38" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |～からき来した|～からきました|(tôi) đến từ ~|1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>888</v>
+        <v>1031</v>
       </c>
       <c r="B39" t="s">
         <v>888</v>
       </c>
       <c r="C39" t="s">
+        <v>888</v>
+      </c>
+      <c r="D39" t="s">
         <v>889</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G39" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |はい|はい|vâng, dạ|1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>890</v>
+        <v>1031</v>
       </c>
       <c r="B40" t="s">
         <v>890</v>
       </c>
       <c r="C40" t="s">
+        <v>890</v>
+      </c>
+      <c r="D40" t="s">
         <v>891</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="G40" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |いいえ|いいえ|không|1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B41" t="s">
         <v>893</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>892</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G41" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |失礼ですが|しつれいですが|Xin lỗi,…(dùng khi hỏi ai đó về thông tin cá nhân như là tên hoặc địa chỉ của họ)|1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B42" t="s">
         <v>896</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>895</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>897</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G42" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |お名前をもう一度お願いします|おなまえをもういちどおねがいします|Anh/ Chị vui lòng nhắc lại tên một lần nữa được không ạ?|1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B43" t="s">
         <v>899</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>898</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>900</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G43" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |どうぞよろしくお願いします|どうぞよろしくおねがいします|Rất mong nhận được sự giúp đỡ của anh/chị!|1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>902</v>
+        <v>1031</v>
       </c>
       <c r="B44" t="s">
         <v>902</v>
       </c>
       <c r="C44" t="s">
+        <v>902</v>
+      </c>
+      <c r="D44" t="s">
         <v>901</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G44" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |そうですか|そうですか|Vậy à/ Thế à?|1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B45" t="s">
         <v>905</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>904</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>903</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>1</v>
+      </c>
+      <c r="G45" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |お仕事は何ですか|おしごとはなんですか|Công việc của anh/chị là gì thế?|1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C46" t="s">
+        <v>919</v>
+      </c>
+      <c r="D46" t="s">
+        <v>918</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> | |これ|cái này, đây (vật ở gần người nói)|2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C47" t="s">
+        <v>920</v>
+      </c>
+      <c r="D47" t="s">
+        <v>921</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="G47" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> | |それ|cái đó, đó (vật ở gần người nghe)|2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C48" t="s">
+        <v>922</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> | |あれ|cái kia, kia (vật ở xa cả người nói 
+và người nghe)|2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C49" t="s">
+        <v>924</v>
+      </c>
+      <c r="D49" t="s">
+        <v>925</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> | |この～ |~ này|2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C50" t="s">
+        <v>926</v>
+      </c>
+      <c r="D50" t="s">
+        <v>927</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="G50" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> | |その～|~ đó|2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C51" t="s">
+        <v>928</v>
+      </c>
+      <c r="D51" t="s">
+        <v>929</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="G51" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> | |あの～|~ kia|2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C52" t="s">
+        <v>930</v>
+      </c>
+      <c r="D52" t="s">
+        <v>931</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="G52" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> | |パソコン|máy tính cá nhân|2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B53" t="s">
+        <v>934</v>
+      </c>
+      <c r="C53" t="s">
+        <v>932</v>
+      </c>
+      <c r="D53" t="s">
+        <v>933</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="G53" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |携帯|けいたい|điện thoại di động|2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B54" t="s">
+        <v>935</v>
+      </c>
+      <c r="C54" t="s">
+        <v>936</v>
+      </c>
+      <c r="D54" t="s">
+        <v>937</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="G54" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |電話|でんわ|điện thoại|2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C55" t="s">
+        <v>939</v>
+      </c>
+      <c r="D55" t="s">
+        <v>938</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="G55" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> | |アイフォン|iphone|2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B56" t="s">
+        <v>941</v>
+      </c>
+      <c r="C56" t="s">
+        <v>942</v>
+      </c>
+      <c r="D56" t="s">
+        <v>940</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |充電器|じゅうでんき|sạc pin|2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C57" t="s">
+        <v>943</v>
+      </c>
+      <c r="D57" t="s">
+        <v>944</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> | |ヘッドフォン|tai nghe|2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C58" t="s">
+        <v>946</v>
+      </c>
+      <c r="D58" t="s">
+        <v>945</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="G58" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> | |カメラ|máy ảnh|2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C59" t="s">
+        <v>948</v>
+      </c>
+      <c r="D59" t="s">
+        <v>947</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="G59" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> | |テレビ|tivi|2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B60" t="s">
+        <v>555</v>
+      </c>
+      <c r="C60" t="s">
+        <v>950</v>
+      </c>
+      <c r="D60" t="s">
+        <v>949</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="G60" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |車|くるま|ô tô, xe hơi|2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B61" t="s">
+        <v>952</v>
+      </c>
+      <c r="C61" t="s">
+        <v>953</v>
+      </c>
+      <c r="D61" t="s">
+        <v>951</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="G61" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |時計|とけい|đồng hồ|2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C62" t="s">
+        <v>955</v>
+      </c>
+      <c r="D62" t="s">
+        <v>954</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="G62" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> | |ペン|bút|2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C63" t="s">
+        <v>956</v>
+      </c>
+      <c r="D63" t="s">
+        <v>957</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="G63" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> | |ボールペン|bút bi|2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B64" t="s">
+        <v>959</v>
+      </c>
+      <c r="C64" t="s">
+        <v>960</v>
+      </c>
+      <c r="D64" t="s">
+        <v>958</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="G64" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |鉛筆|えんぴつ|bút chì|2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C65" t="s">
+        <v>961</v>
+      </c>
+      <c r="D65" t="s">
+        <v>962</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="G65" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> | |シャープペンシル|bút chì kim|2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B66" t="s">
+        <v>964</v>
+      </c>
+      <c r="C66" t="s">
+        <v>963</v>
+      </c>
+      <c r="D66" t="s">
+        <v>965</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="G66" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |消しゴム|けしゴム|tẩy|2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B67" t="s">
+        <v>507</v>
+      </c>
+      <c r="C67" t="s">
+        <v>967</v>
+      </c>
+      <c r="D67" t="s">
+        <v>966</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="G67" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |本|ほん|sách|2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C68" t="s">
+        <v>968</v>
+      </c>
+      <c r="D68" t="s">
+        <v>969</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="G68" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> | |ノート|vở|2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B69" t="s">
+        <v>971</v>
+      </c>
+      <c r="C69" t="s">
+        <v>972</v>
+      </c>
+      <c r="D69" t="s">
+        <v>970</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="G69" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |手帳|てちょう|sổ tay|2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B70" t="s">
+        <v>975</v>
+      </c>
+      <c r="C70" t="s">
+        <v>977</v>
+      </c>
+      <c r="D70" t="s">
+        <v>973</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="G70" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |辞書|じしょ|từ điển|2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B71" t="s">
+        <v>976</v>
+      </c>
+      <c r="C71" t="s">
+        <v>978</v>
+      </c>
+      <c r="D71" t="s">
+        <v>974</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="G71" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |新聞|しんぶん|báo|2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B72" t="s">
+        <v>981</v>
+      </c>
+      <c r="C72" t="s">
+        <v>979</v>
+      </c>
+      <c r="D72" t="s">
+        <v>983</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="G72" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |雑誌|ざっし|tạp chí|2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B73" t="s">
+        <v>982</v>
+      </c>
+      <c r="C73" t="s">
+        <v>980</v>
+      </c>
+      <c r="D73" t="s">
+        <v>984</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="G73" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |名刺|めいし|danh thiếp|2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C74" t="s">
+        <v>985</v>
+      </c>
+      <c r="D74" t="s">
+        <v>986</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="G74" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> | |カード|thẻ, cạc|2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C75" t="s">
+        <v>988</v>
+      </c>
+      <c r="D75" t="s">
+        <v>987</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="G75" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> | |クレジットカード|thẻ tín dụng|2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B76" t="s">
+        <v>990</v>
+      </c>
+      <c r="C76" t="s">
+        <v>991</v>
+      </c>
+      <c r="D76" t="s">
+        <v>989</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="G76" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |帽子|ぼうし|mũ|2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B77" t="s">
+        <v>993</v>
+      </c>
+      <c r="C77" t="s">
+        <v>994</v>
+      </c>
+      <c r="D77" t="s">
+        <v>992</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="G77" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |財布|さいふ|ví|2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C78" t="s">
+        <v>995</v>
+      </c>
+      <c r="D78" t="s">
+        <v>996</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="G78" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> | |かばん|cặp sách, túi sách|2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B79" t="s">
+        <v>998</v>
+      </c>
+      <c r="C79" t="s">
+        <v>997</v>
+      </c>
+      <c r="D79" t="s">
+        <v>999</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="G79" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |靴|くつ|giày|2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="G80" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> | |スリッパ|dép đi trong nh|2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="G81" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |靴下|くつした|tất|2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="G82" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |鍵|かぎ|chìa khóa|2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="G83" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |傘|かさ|ô, dù|2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="G84" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |机|つくえ|bàn|2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="G85" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |椅子|いす|cái ghế|2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="G86" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |英語 |えいご|tiếng Anh|2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B87" t="s">
+        <v>448</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="G87" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |何|なん|cái gì (từ để hỏi)|2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="G88" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> | |そう|đúng, phải, đúng vậy|2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="G89" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |違う,
+違います|ちがう ,
+ちがいます|không phải, sai rồi|2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D90" t="s">
+        <v>933</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="G90" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> | |スマホ|điện thoại di động|2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="G91" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> |ほんの気持ち|ほんのきもち|Đây là chút lòng thành của tôi!|2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C92" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" t="s">
+        <v>949</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="G92" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v xml:space="preserve"> | |カ|ô tô, xe hơi|2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G93" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G94" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G95" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G96" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G97" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G98" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G99" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G100" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G101" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G102" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G103" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G104" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G105" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="106" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G106" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="107" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G107" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="108" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G108" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="109" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G109" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="110" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G110" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="111" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G111" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="112" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G112" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G113" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G114" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G115" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G116" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G117" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="118" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G118" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="119" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G119" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="120" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G120" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="121" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G121" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="122" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G122" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="123" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G123" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="124" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G124" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="125" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G125" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="126" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G126" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="127" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G127" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="128" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G128" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="129" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G129" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="130" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G130" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G131" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="132" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G132" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G133" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G134" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G135" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G136" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="137" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G137" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="138" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G138" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="139" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G139" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="140" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G140" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="141" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G141" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="142" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G142" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="143" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G143" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="144" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G144" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G145" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="146" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G146" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="147" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G147" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="148" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G148" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="149" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G149" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G150" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="151" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G151" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="152" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G152" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="153" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G153" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="154" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G154" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="155" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G155" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="156" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G156" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="157" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G157" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="158" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G158" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="159" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G159" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="160" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G160" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="161" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G161" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="162" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G162" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="163" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G163" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="164" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G164" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="165" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G165" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="166" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G166" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="167" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G167" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="168" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G168" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="169" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G169" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="170" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G170" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="171" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G171" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="172" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G172" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="173" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G173" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="174" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G174" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="175" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G175" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="176" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G176" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="177" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G177" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="178" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G178" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="179" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G179" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="180" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G180" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="181" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G181" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="182" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G182" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="183" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G183" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="184" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G184" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="185" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G185" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="186" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G186" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="187" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G187" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="188" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G188" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="189" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G189" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="190" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G190" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="191" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G191" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="192" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G192" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="193" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G193" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="194" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G194" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="195" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G195" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="196" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G196" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="197" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G197" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="198" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G198" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="199" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G199" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="200" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G200" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="201" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G201" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="202" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G202" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="203" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G203" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="204" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G204" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="205" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G205" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="206" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G206" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="207" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G207" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="208" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G208" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="209" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G209" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="210" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G210" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="211" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G211" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="212" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G212" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="213" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G213" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="214" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G214" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="215" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G215" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="216" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G216" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="217" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G217" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="218" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G218" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="219" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G219" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="220" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G220" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="221" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G221" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="222" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G222" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="223" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G223" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="224" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G224" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="225" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G225" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="226" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G226" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="227" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G227" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="228" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G228" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="229" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G229" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="230" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G230" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="231" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G231" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="232" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G232" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="233" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G233" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="234" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G234" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="235" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G235" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="236" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G236" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="237" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G237" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="238" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G238" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="239" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G239" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="240" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G240" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="241" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G241" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="242" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G242" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="243" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G243" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="244" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G244" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="245" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G245" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="246" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G246" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="247" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G247" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="248" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G248" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="249" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G249" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="250" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G250" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="251" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G251" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="252" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G252" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="253" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G253" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="254" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G254" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="255" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G255" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="256" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G256" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="257" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G257" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="258" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G258" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="259" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G259" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="260" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G260" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="261" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G261" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="262" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G262" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="263" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G263" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="264" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G264" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="265" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G265" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="266" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G266" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="267" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G267" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="268" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G268" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="269" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G269" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="270" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G270" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="271" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G271" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="272" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G272" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="273" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G273" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="274" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G274" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="275" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G275" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="276" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G276" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="277" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G277" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="278" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G278" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="279" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G279" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="280" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G280" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="281" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G281" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="282" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G282" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="283" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G283" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="284" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G284" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="285" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G285" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="286" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G286" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="287" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G287" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="288" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G288" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="289" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G289" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="290" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G290" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="291" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G291" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="292" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G292" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="293" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G293" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="294" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G294" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="295" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G295" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="296" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G296" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="297" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G297" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="298" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G298" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="299" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G299" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="300" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G300" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="301" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G301" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="302" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G302" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="303" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G303" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="304" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G304" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="305" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G305" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="306" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G306" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="307" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G307" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="308" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G308" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="309" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G309" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="310" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G310" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="311" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G311" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="312" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G312" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="313" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G313" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="314" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G314" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="315" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G315" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="316" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G316" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="317" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G317" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="318" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G318" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="319" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G319" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="320" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G320" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="321" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G321" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="322" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G322" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="323" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G323" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="324" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G324" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="325" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G325" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="326" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G326" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="327" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G327" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="328" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G328" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="329" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G329" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="330" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G330" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="331" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G331" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="332" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G332" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="333" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G333" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="334" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G334" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="335" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G335" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="336" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G336" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="337" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G337" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="338" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G338" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="339" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G339" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="340" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G340" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="341" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G341" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="342" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G342" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="343" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G343" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="344" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G344" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="345" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G345" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="346" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G346" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="347" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G347" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="348" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G348" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="349" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G349" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="350" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G350" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="351" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G351" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="352" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G352" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="353" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G353" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="354" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G354" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="355" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G355" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="356" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G356" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="357" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G357" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="358" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G358" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="359" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G359" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="360" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G360" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="361" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G361" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="362" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G362" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="363" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G363" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="364" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G364" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="365" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G365" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="366" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G366" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="367" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G367" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="368" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G368" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="369" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G369" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="370" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G370" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="371" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G371" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="372" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G372" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="373" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G373" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="374" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G374" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="375" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G375" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="376" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G376" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="377" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G377" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="378" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G378" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="379" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G379" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="380" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G380" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="381" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G381" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="382" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G382" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="383" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G383" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="384" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G384" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="385" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G385" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="386" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G386" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="387" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G387" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="388" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G388" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="389" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G389" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="390" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G390" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="391" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G391" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="392" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G392" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="393" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G393" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="394" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G394" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="395" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G395" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="396" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G396" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="397" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G397" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="398" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G398" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="399" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G399" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="400" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G400" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="401" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G401" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="402" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G402" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="403" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G403" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="404" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G404" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="405" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G405" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="406" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G406" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="407" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G407" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="408" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G408" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="409" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G409" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="410" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G410" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="411" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G411" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="412" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G412" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="413" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G413" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="414" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G414" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="415" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G415" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="416" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G416" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="417" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G417" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="418" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G418" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="419" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G419" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="420" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G420" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="421" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G421" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="422" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G422" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="423" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G423" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="424" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G424" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="425" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G425" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="426" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G426" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="427" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G427" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="428" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G428" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="429" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G429" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="430" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G430" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="431" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G431" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="432" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G432" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="433" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G433" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="434" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G434" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="435" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G435" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="436" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G436" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="437" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G437" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="438" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G438" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="439" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G439" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="440" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G440" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="441" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G441" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="442" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G442" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="443" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G443" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="444" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G444" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="445" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G445" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="446" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G446" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="447" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G447" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="448" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G448" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="449" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G449" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="450" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G450" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="451" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G451" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="452" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G452" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="453" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G453" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="454" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G454" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="455" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G455" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="456" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G456" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="457" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G457" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="458" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G458" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="459" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G459" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="460" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G460" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="461" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G461" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="462" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G462" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="463" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G463" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="464" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G464" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="465" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G465" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="466" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G466" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="467" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G467" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="468" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G468" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="469" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G469" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="470" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G470" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="471" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G471" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="472" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G472" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="473" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G473" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="474" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G474" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="475" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G475" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="476" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G476" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="477" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G477" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="478" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G478" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="479" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G479" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="480" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G480" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="481" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G481" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="482" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G482" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="483" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G483" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="484" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G484" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="485" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G485" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="486" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G486" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="487" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G487" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="488" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G488" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="489" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G489" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="490" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G490" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="491" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G491" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="492" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G492" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="493" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G493" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="494" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G494" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="495" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G495" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="496" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G496" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="497" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G497" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="498" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G498" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="499" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G499" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="500" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G500" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="501" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G501" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="502" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G502" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="503" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G503" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="504" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G504" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="505" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G505" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="506" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G506" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="507" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G507" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="508" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G508" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="509" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G509" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="510" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G510" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="511" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G511" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="512" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G512" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="513" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G513" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="514" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G514" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="515" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G515" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="516" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G516" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="517" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G517" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="518" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G518" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="519" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G519" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="520" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G520" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="521" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G521" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="522" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G522" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="523" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G523" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="524" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G524" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="525" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G525" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="526" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G526" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="527" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G527" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="528" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G528" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="529" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G529" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="530" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G530" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="531" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G531" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="532" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G532" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="533" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G533" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="534" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G534" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="535" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G535" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="536" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G536" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="537" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G537" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="538" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G538" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="539" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G539" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="540" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G540" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="541" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G541" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="542" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G542" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="543" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G543" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="544" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G544" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="545" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G545" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="546" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G546" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="547" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G547" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="548" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G548" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="549" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G549" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="550" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G550" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="551" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G551" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="552" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G552" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="553" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G553" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="554" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G554" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="555" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G555" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="556" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G556" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="557" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G557" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="558" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G558" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="559" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G559" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="560" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G560" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="561" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G561" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="562" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G562" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="563" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G563" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="564" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G564" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="565" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G565" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="566" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G566" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="567" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G567" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="568" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G568" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="569" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G569" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="570" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G570" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="571" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G571" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="572" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G572" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="573" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G573" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="574" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G574" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="575" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G575" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="576" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G576" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="577" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G577" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="578" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G578" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="579" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G579" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="580" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G580" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="581" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G581" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="582" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G582" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="583" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G583" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="584" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G584" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="585" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G585" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="586" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G586" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="587" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G587" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="588" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G588" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="589" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G589" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="590" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G590" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="591" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G591" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="592" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G592" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="593" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G593" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="594" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G594" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="595" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G595" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="596" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G596" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="597" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G597" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="598" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G598" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="599" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G599" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="600" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G600" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="601" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G601" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="602" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G602" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="603" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G603" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="604" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G604" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="605" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G605" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="606" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G606" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="607" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G607" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="608" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G608" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="609" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G609" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="610" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G610" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="611" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G611" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="612" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G612" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="613" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G613" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="614" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G614" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="615" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G615" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="616" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G616" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="617" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G617" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="618" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G618" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="619" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G619" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="620" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G620" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="621" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G621" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="622" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G622" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="623" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G623" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="624" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G624" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="625" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G625" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="626" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G626" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="627" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G627" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="628" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G628" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="629" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G629" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="630" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G630" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="631" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G631" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="632" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G632" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="633" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G633" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="634" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G634" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="635" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G635" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="636" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G636" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="637" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G637" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="638" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G638" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="639" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G639" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="640" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G640" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="641" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G641" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="642" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G642" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="643" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G643" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="644" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G644" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="645" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G645" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="646" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G646" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="647" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G647" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="648" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G648" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="649" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G649" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="650" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G650" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="651" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G651" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="652" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G652" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="653" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G653" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="654" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G654" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="655" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G655" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="656" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G656" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="657" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G657" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="658" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G658" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="659" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G659" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="660" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G660" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="661" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G661" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="662" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G662" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="663" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G663" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="664" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G664" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="665" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G665" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="666" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G666" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="667" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G667" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="668" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G668" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="669" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G669" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="670" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G670" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="671" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G671" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="672" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G672" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="673" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G673" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="674" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G674" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="675" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G675" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="676" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G676" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="677" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G677" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="678" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G678" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="679" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G679" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="680" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G680" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="681" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G681" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="682" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G682" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="683" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G683" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="684" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G684" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="685" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G685" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="686" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G686" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="687" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G687" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="688" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G688" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="689" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G689" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="690" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G690" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="691" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G691" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="692" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G692" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="693" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G693" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="694" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G694" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="695" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G695" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="696" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G696" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="697" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G697" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="698" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G698" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="699" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G699" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="700" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G700" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="701" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G701" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="702" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G702" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="703" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G703" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="704" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G704" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="705" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G705" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="706" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G706" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="707" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G707" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="708" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G708" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="709" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G709" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="710" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G710" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="711" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G711" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="712" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G712" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="713" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G713" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="714" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G714" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="715" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G715" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="716" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G716" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="717" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G717" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="718" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G718" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="719" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G719" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="720" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G720" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="721" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G721" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="722" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G722" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="723" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G723" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="724" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G724" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="725" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G725" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="726" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G726" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="727" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G727" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="728" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G728" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="729" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G729" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="730" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G730" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="731" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G731" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="732" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G732" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="733" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G733" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="734" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G734" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="735" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G735" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="736" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G736" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="737" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G737" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="738" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G738" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="739" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G739" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="740" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G740" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="741" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G741" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="742" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G742" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="743" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G743" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="744" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G744" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="745" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G745" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="746" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G746" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="747" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G747" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="748" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G748" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="749" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G749" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="750" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G750" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="751" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G751" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="752" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G752" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="753" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G753" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="754" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G754" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="755" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G755" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="756" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G756" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="757" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G757" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="758" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G758" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="759" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G759" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="760" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G760" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="761" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G761" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="762" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G762" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="763" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G763" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="764" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G764" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="765" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G765" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="766" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G766" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="767" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G767" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="768" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G768" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="769" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G769" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="770" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G770" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="771" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G771" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="772" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G772" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="773" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G773" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="774" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G774" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="775" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G775" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="776" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G776" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="777" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G777" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="778" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G778" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="779" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G779" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="780" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G780" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="781" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G781" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="782" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G782" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="783" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G783" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="784" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G784" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="785" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G785" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="786" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G786" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="787" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G787" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="788" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G788" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="789" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G789" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="790" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G790" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="791" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G791" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="792" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G792" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="793" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G793" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="794" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G794" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="795" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G795" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="796" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G796" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="797" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G797" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="798" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G798" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="799" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G799" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="800" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G800" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="801" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G801" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="802" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G802" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="803" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G803" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="804" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G804" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="805" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G805" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="806" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G806" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="807" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G807" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="808" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G808" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="809" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G809" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="810" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G810" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="811" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G811" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="812" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G812" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="813" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G813" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="814" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G814" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="815" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G815" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="816" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G816" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="817" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G817" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="818" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G818" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="819" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G819" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="820" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G820" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="821" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G821" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="822" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G822" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="823" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G823" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="824" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G824" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="825" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G825" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="826" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G826" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="827" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G827" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="828" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G828" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="829" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G829" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="830" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G830" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="831" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G831" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="832" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G832" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="833" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G833" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="834" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G834" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="835" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G835" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="836" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G836" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="837" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G837" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="838" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G838" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="839" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G839" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="840" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G840" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="841" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G841" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="842" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G842" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="843" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G843" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="844" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G844" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="845" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G845" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="846" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G846" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="847" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G847" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="848" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G848" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="849" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G849" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="850" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G850" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="851" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G851" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="852" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G852" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="853" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G853" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="854" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G854" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="855" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G855" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="856" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G856" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="857" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G857" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="858" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G858" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="859" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G859" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="860" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G860" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="861" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G861" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="862" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G862" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="863" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G863" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="864" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G864" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="865" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G865" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="866" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G866" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="867" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G867" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="868" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G868" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="869" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G869" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="870" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G870" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="871" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G871" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="872" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G872" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="873" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G873" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="874" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G874" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="875" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G875" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="876" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G876" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="877" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G877" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="878" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G878" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="879" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G879" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="880" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G880" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="881" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G881" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="882" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G882" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="883" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G883" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="884" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G884" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="885" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G885" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="886" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G886" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="887" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G887" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="888" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G888" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="889" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G889" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="890" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G890" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="891" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G891" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="892" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G892" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="893" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G893" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="894" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G894" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="895" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G895" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="896" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G896" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="897" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G897" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="898" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G898" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="899" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G899" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="900" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G900" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="901" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G901" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="902" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G902" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="903" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G903" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="904" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G904" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="905" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G905" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="906" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G906" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="907" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G907" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="908" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G908" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="909" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G909" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="910" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G910" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="911" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G911" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="912" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G912" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="913" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G913" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="914" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G914" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="915" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G915" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="916" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G916" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="917" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G917" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="918" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G918" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="919" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G919" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="920" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G920" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="921" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G921" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="922" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G922" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="923" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G923" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="924" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G924" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="925" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G925" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="926" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G926" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="927" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G927" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="928" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G928" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="929" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G929" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="930" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G930" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="931" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G931" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="932" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G932" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="933" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G933" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="934" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G934" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="935" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G935" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="936" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G936" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="937" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G937" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="938" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G938" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="939" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G939" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="940" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G940" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="941" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G941" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="942" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G942" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="943" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G943" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="944" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G944" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="945" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G945" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="946" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G946" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="947" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G947" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="948" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G948" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="949" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G949" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="950" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G950" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="951" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G951" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="952" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G952" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="953" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G953" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="954" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G954" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="955" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G955" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="956" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G956" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="957" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G957" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="958" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G958" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="959" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G959" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="960" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G960" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="961" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G961" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="962" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G962" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="963" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G963" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="964" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G964" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="965" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G965" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="966" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G966" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="967" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G967" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="968" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G968" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="969" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G969" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="970" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G970" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="971" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G971" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="972" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G972" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="973" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G973" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="974" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G974" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="975" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G975" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="976" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G976" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="977" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G977" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="978" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G978" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="979" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G979" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="980" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G980" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="981" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G981" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="982" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G982" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="983" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G983" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="984" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G984" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="985" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G985" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="986" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G986" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="987" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G987" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="988" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G988" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="989" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G989" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="990" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G990" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="991" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G991" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="992" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G992" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="993" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G993" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="994" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G994" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="995" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G995" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="996" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G996" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="997" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G997" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="998" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G998" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="999" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G999" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1000" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1000" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1001" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1001" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1002" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1002" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1003" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1003" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1004" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1004" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1005" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1005" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1006" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1006" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1007" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1007" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1008" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1008" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1009" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1009" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1010" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1010" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1011" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1011" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1012" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1012" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1013" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1013" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1014" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1014" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1015" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1015" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1016" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1016" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1017" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1017" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1018" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1018" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1019" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1019" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1020" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1020" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1021" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1021" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1022" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1022" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1023" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1023" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1024" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1024" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1025" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1025" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1026" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1026" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1027" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1027" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1028" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1028" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1029" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1029" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1030" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1030" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1031" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1031" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1032" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1032" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1033" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1033" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1034" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1034" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1035" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1035" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1036" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1036" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1037" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1037" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1038" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1038" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1039" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1039" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1040" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1040" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1041" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1041" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1042" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1042" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1043" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1043" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1044" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1044" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1045" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1045" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1046" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1046" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1047" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1047" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1048" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1048" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1049" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1049" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1050" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1050" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1051" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1051" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1052" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1052" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1053" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1053" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1054" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1054" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1055" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1055" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1056" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1056" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1057" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1057" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1058" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1058" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1059" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1059" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1060" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1060" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1061" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1061" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1062" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1062" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1063" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1063" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1064" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1064" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1065" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1065" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1066" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1066" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1067" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1067" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1068" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1068" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1069" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1069" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1070" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1070" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1071" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1071" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1072" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1072" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1073" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1073" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1074" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1074" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1075" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1075" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1076" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1076" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1077" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1077" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1078" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1078" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1079" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1079" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1080" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1080" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1081" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1081" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1082" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1082" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1083" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1083" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1084" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1084" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1085" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1085" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1086" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1086" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1087" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1087" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1088" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1088" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1089" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1089" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1090" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1090" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1091" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1091" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1092" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1092" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1093" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1093" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1094" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1094" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1095" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1095" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1096" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1096" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1097" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1097" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1098" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1098" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1099" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1099" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1100" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1100" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1101" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1101" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1102" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1102" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1103" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1103" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1104" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1104" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1105" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1105" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1106" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1106" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1107" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1107" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1108" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1108" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1109" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1109" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1110" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1110" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1111" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1111" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1112" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1112" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1113" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1113" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1114" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1114" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1115" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1115" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1116" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1116" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1117" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1117" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1118" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1118" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1119" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1119" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1120" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1120" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1121" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1121" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1122" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1122" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1123" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1123" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1124" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1124" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1125" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1125" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1126" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1126" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1127" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1127" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1128" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1128" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1129" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1129" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1130" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1130" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1131" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1131" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1132" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1132" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1133" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1133" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1134" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1134" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1135" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1135" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1136" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1136" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1137" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1137" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1138" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1138" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1139" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1139" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1140" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1140" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1141" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1141" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1142" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1142" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1143" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1143" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1144" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1144" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1145" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1145" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1146" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1146" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1147" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1147" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1148" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1148" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1149" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1149" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1150" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1150" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1151" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1151" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1152" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1152" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1153" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1153" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1154" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1154" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1155" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1155" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1156" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1156" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1157" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1157" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1158" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1158" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1159" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1159" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1160" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1160" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1161" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1161" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1162" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1162" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1163" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1163" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1164" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1164" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1165" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1165" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1166" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1166" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1167" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1167" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1168" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1168" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1169" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1169" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1170" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1170" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1171" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1171" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1172" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1172" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1173" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1173" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1174" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1174" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1175" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1175" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1176" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1176" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1177" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1177" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1178" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1178" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1179" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1179" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1180" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1180" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1181" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1181" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1182" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1182" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1183" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1183" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1184" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1184" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1185" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1185" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1186" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1186" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1187" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1187" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1188" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1188" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1189" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1189" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1190" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1190" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1191" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1191" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1192" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1192" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1193" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1193" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1194" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1194" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1195" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1195" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1196" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1196" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1197" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1197" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1198" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1198" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1199" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1199" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1200" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1200" t="e">
+        <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/data/ListNihongo.xlsx
+++ b/data/ListNihongo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Japan\Tools\nihongo-tools\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B1504B-3AC6-454A-BCEF-92B3552BEF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6648AC64-FC42-4FD6-B972-5CBDC666ECFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="14" xr2:uid="{56CF80BE-14E5-4F88-95A3-F1EC2EF36E05}"/>
   </bookViews>
@@ -7695,8 +7695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1333FF2-D445-482C-AA9E-8D00BBB24BB3}">
   <dimension ref="A1:G1200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11124,11 +11124,11 @@
         <v>1247</v>
       </c>
       <c r="E163">
-        <v>-1</v>
+        <v>99</v>
       </c>
       <c r="G163" t="str">
         <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
-        <v xml:space="preserve"> |働く　I|はたらく　I|làm việc|-1</v>
+        <v xml:space="preserve"> |働く　I|はたらく　I|làm việc|99</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -11166,11 +11166,11 @@
         <v>1248</v>
       </c>
       <c r="E165">
-        <v>-1</v>
+        <v>99</v>
       </c>
       <c r="G165" t="str">
         <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
-        <v xml:space="preserve"> |休む　I|やすむ　I|nghỉ, nghỉ ngơi|-1</v>
+        <v xml:space="preserve"> |休む　I|やすむ　I|nghỉ, nghỉ ngơi|99</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -11208,11 +11208,11 @@
         <v>1249</v>
       </c>
       <c r="E167">
-        <v>-1</v>
+        <v>99</v>
       </c>
       <c r="G167" t="str">
         <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
-        <v xml:space="preserve"> |終わる　I|おわる　I|hết, kết thúc, xong|-1</v>
+        <v xml:space="preserve"> |終わる　I|おわる　I|hết, kết thúc, xong|99</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -11250,11 +11250,11 @@
         <v>1250</v>
       </c>
       <c r="E169">
-        <v>-1</v>
+        <v>99</v>
       </c>
       <c r="G169" t="str">
         <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
-        <v xml:space="preserve"> |起きる　II|おきる　II|thức dậy|-1</v>
+        <v xml:space="preserve"> |起きる　II|おきる　II|thức dậy|99</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -11292,11 +11292,11 @@
         <v>1252</v>
       </c>
       <c r="E171">
-        <v>-1</v>
+        <v>99</v>
       </c>
       <c r="G171" t="str">
         <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
-        <v xml:space="preserve"> |寝る　II|ねる　II|ngủ|-1</v>
+        <v xml:space="preserve"> |寝る　II|ねる　II|ngủ|99</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -11334,11 +11334,11 @@
         <v>1253</v>
       </c>
       <c r="E173">
-        <v>-1</v>
+        <v>99</v>
       </c>
       <c r="G173" t="str">
         <f>_xlfn.TEXTJOIN("|",TRUE,Table10[#This Row])</f>
-        <v xml:space="preserve"> |勉強する　III|べんきょうする　III|học|-1</v>
+        <v xml:space="preserve"> |勉強する　III|べんきょうする　III|học|99</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
